--- a/enzymes2.xlsx
+++ b/enzymes2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaskka8\Desktop\Bioinf\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4435C68D-E57A-4591-B1C9-17F32A91BF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D76204-A7A2-456D-A31D-A7B1DE5E87E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{79E8E464-E8B2-4E1F-9330-CF55ED673982}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79E8E464-E8B2-4E1F-9330-CF55ED673982}"/>
   </bookViews>
   <sheets>
     <sheet name="Enzymes" sheetId="1" r:id="rId1"/>
@@ -2379,13 +2379,13 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Position 2</t>
-  </si>
-  <si>
     <t>Nicked</t>
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Position2</t>
   </si>
 </sst>
 </file>
@@ -2493,10 +2493,10 @@
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <font>
-        <color theme="9"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -2514,11 +2514,6 @@
     <dxf>
       <font>
         <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -2867,7 +2862,7 @@
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2889,7 +2884,7 @@
         <v>480</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4796,7 +4791,7 @@
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
       <c r="E160" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -4809,7 +4804,7 @@
       <c r="C161" s="3"/>
       <c r="D161" s="4"/>
       <c r="E161" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -4822,7 +4817,7 @@
       <c r="C162" s="3"/>
       <c r="D162" s="4"/>
       <c r="E162" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -4835,7 +4830,7 @@
       <c r="C163" s="3"/>
       <c r="D163" s="4"/>
       <c r="E163" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -4848,7 +4843,7 @@
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
       <c r="E164" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -5005,7 +5000,7 @@
       <c r="C177" s="3"/>
       <c r="D177" s="4"/>
       <c r="E177" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -5018,7 +5013,7 @@
       <c r="C178" s="3"/>
       <c r="D178" s="4"/>
       <c r="E178" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -5031,7 +5026,7 @@
       <c r="C179" s="3"/>
       <c r="D179" s="4"/>
       <c r="E179" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -5044,7 +5039,7 @@
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
       <c r="E180" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -5057,7 +5052,7 @@
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
       <c r="E181" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -5070,7 +5065,7 @@
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
       <c r="E182" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -5771,20 +5766,20 @@
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A240">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="(">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="(">
       <formula>NOT(ISERROR(SEARCH("(",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C240">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
